--- a/Dokumentace/Danfoss/Nastavení starých frekvenčních měničů.xlsx
+++ b/Dokumentace/Danfoss/Nastavení starých frekvenčních měničů.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00624a242860782d/SIMATIC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitez\Documents\GitHub\SOURCES\Dokumentace\Danfoss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Param.</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>MOTOR VOLTAGE</t>
+  </si>
+  <si>
+    <t>MAXIMUM REFERENCE</t>
+  </si>
+  <si>
+    <t>RAMP UP TIME</t>
+  </si>
+  <si>
+    <t>RAMP DOWN TIME</t>
+  </si>
+  <si>
+    <t>PRESENT REFERENCE</t>
+  </si>
+  <si>
+    <t>WARNING LOW FREQUENCY</t>
+  </si>
+  <si>
+    <t>OUTPUT FREQUENCY RANGE</t>
+  </si>
+  <si>
+    <t>TERMINAL 19 INPUT</t>
+  </si>
+  <si>
+    <t>TERMINAL 32 INPUT</t>
+  </si>
+  <si>
+    <t>TERMINAL 33 INPUT</t>
+  </si>
+  <si>
+    <t>RELAY 1 OUTPUT</t>
+  </si>
+  <si>
+    <t>BRAKE FUNCTION / OVERVOLTAGE CONTROL</t>
+  </si>
+  <si>
+    <t>BRAKE REZISTOR (OHM)</t>
   </si>
 </sst>
 </file>
@@ -128,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,11 +283,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -279,6 +324,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +648,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +724,7 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4">
@@ -709,7 +760,7 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="4">
@@ -745,7 +796,7 @@
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4">
@@ -781,7 +832,7 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4">
@@ -817,7 +868,7 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4">
@@ -853,6 +904,9 @@
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="4">
         <v>200</v>
       </c>
@@ -886,6 +940,9 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="4">
         <v>205</v>
       </c>
@@ -919,6 +976,9 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="B10" s="4">
         <v>207</v>
       </c>
@@ -952,6 +1012,9 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B11" s="4">
         <v>208</v>
       </c>
@@ -985,6 +1048,9 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" s="4">
         <v>215</v>
       </c>
@@ -1018,6 +1084,7 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
       <c r="B13" s="4">
         <v>216</v>
       </c>
@@ -1051,6 +1118,7 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
       <c r="B14" s="4">
         <v>217</v>
       </c>
@@ -1084,6 +1152,7 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
       <c r="B15" s="4">
         <v>218</v>
       </c>
@@ -1117,6 +1186,9 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="4">
         <v>225</v>
       </c>
@@ -1149,7 +1221,10 @@
       <c r="S16" s="6"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="2:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="4">
         <v>303</v>
       </c>
@@ -1182,7 +1257,10 @@
       <c r="S17" s="6"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="2:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="4">
         <v>306</v>
       </c>
@@ -1215,7 +1293,10 @@
       <c r="S18" s="6"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="2:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="B19" s="4">
         <v>307</v>
       </c>
@@ -1248,7 +1329,10 @@
       <c r="S19" s="6"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="2:20" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="4">
         <v>323</v>
       </c>
@@ -1281,7 +1365,10 @@
       <c r="S20" s="6"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="B21" s="4">
         <v>400</v>
       </c>
@@ -1314,7 +1401,10 @@
       <c r="S21" s="6"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B22" s="7">
         <v>401</v>
       </c>
@@ -1347,8 +1437,11 @@
       <c r="S22" s="9"/>
       <c r="T22" s="7"/>
     </row>
-    <row r="23" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
